--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="20120" windowHeight="9030"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="9030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId5"/>
     <sheet name="BS-BSpUEO" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="136">
   <si>
     <t>Source:</t>
   </si>
@@ -222,9 +222,6 @@
     <t>hydro ($/MWh)</t>
   </si>
   <si>
-    <t>wind ($/MWh)</t>
-  </si>
-  <si>
     <t>BS BAU Subsidy per Unit Electricity Output</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Natural Gas</t>
   </si>
   <si>
-    <t>coal ($/MWh)</t>
-  </si>
-  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -550,6 +544,21 @@
   </si>
   <si>
     <t>Coal Production and Consumption and Natural Gas Consumption</t>
+  </si>
+  <si>
+    <t>hard coal ($/MWh)</t>
+  </si>
+  <si>
+    <t>onshore wind ($/MWh)</t>
+  </si>
+  <si>
+    <t>lignite ($/MWh)</t>
+  </si>
+  <si>
+    <t>offshore wind ($/MWh)</t>
+  </si>
+  <si>
+    <t>lignite ($/BTU)</t>
   </si>
 </sst>
 </file>
@@ -558,9 +567,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yy"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1000,43 +1009,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,29 +1024,14 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1107,10 +1068,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1119,6 +1080,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -1433,147 +1442,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.26953125" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1590,21 +1599,21 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1622,600 +1631,606 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="J4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="L4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="M4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="N4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="O4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="P4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="B6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
+      <c r="C6" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H6" s="13">
+        <v>226552000</v>
+      </c>
+      <c r="I6" s="13">
+        <v>228648096</v>
+      </c>
+      <c r="J6" s="13">
+        <v>186710496</v>
+      </c>
+      <c r="K6" s="13">
+        <v>193139392</v>
+      </c>
+      <c r="L6" s="13">
+        <v>194695600</v>
+      </c>
+      <c r="M6" s="13">
+        <v>213688096</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="H7" s="14">
+        <v>172055696</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="H8" s="13">
+        <v>24139500</v>
+      </c>
+      <c r="I8" s="13">
+        <v>27344200</v>
+      </c>
+      <c r="J8" s="13">
+        <v>30651000</v>
+      </c>
+      <c r="K8" s="13">
+        <v>37343100</v>
+      </c>
+      <c r="L8" s="13">
+        <v>22563100</v>
+      </c>
+      <c r="M8" s="13">
+        <v>162219104</v>
+      </c>
+      <c r="N8" s="13">
+        <v>13500000</v>
+      </c>
+      <c r="O8" s="13">
+        <v>13500000</v>
+      </c>
+      <c r="P8" s="13">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="H9" s="14">
+        <v>23834000</v>
+      </c>
+      <c r="I9" s="14">
+        <v>25129600</v>
+      </c>
+      <c r="J9" s="14">
+        <v>23816700</v>
+      </c>
+      <c r="K9" s="14">
+        <v>24204500</v>
+      </c>
+      <c r="L9" s="14">
+        <v>15617200</v>
+      </c>
+      <c r="M9" s="14">
+        <v>21732800</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="H10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1752649984</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2127890048</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1304700032</v>
+      </c>
+      <c r="M10" s="13">
+        <v>2055939968</v>
+      </c>
+      <c r="N10" s="13">
+        <v>741929984</v>
+      </c>
+      <c r="O10" s="13">
+        <v>741929984</v>
+      </c>
+      <c r="P10" s="13">
+        <v>741929984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="H11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="14">
+        <v>400000000</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="H12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="13">
+        <v>169980000</v>
+      </c>
+      <c r="N12" s="13">
+        <v>170760000</v>
+      </c>
+      <c r="O12" s="13">
+        <v>170760000</v>
+      </c>
+      <c r="P12" s="13">
+        <v>170760000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="H13" s="14">
+        <v>43690000</v>
+      </c>
+      <c r="I13" s="14">
+        <v>47624500</v>
+      </c>
+      <c r="J13" s="14">
+        <v>22229500</v>
+      </c>
+      <c r="K13" s="14">
+        <v>7459900</v>
+      </c>
+      <c r="L13" s="14">
+        <v>12696100</v>
+      </c>
+      <c r="M13" s="14">
+        <v>8597500</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="H14" s="13">
+        <v>114000000</v>
+      </c>
+      <c r="I14" s="13">
+        <v>262000000</v>
+      </c>
+      <c r="J14" s="13">
+        <v>498000000</v>
+      </c>
+      <c r="K14" s="13">
+        <v>609000000</v>
+      </c>
+      <c r="L14" s="13">
+        <v>720000000</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="H15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="25">
-        <v>226552000</v>
-      </c>
-      <c r="I6" s="25">
-        <v>228648096</v>
-      </c>
-      <c r="J6" s="25">
-        <v>186710496</v>
-      </c>
-      <c r="K6" s="25">
-        <v>193139392</v>
-      </c>
-      <c r="L6" s="25">
-        <v>194695600</v>
-      </c>
-      <c r="M6" s="25">
-        <v>213688096</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28">
-        <v>172055696</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="25">
-        <v>24139500</v>
-      </c>
-      <c r="I8" s="25">
-        <v>27344200</v>
-      </c>
-      <c r="J8" s="25">
-        <v>30651000</v>
-      </c>
-      <c r="K8" s="25">
-        <v>37343100</v>
-      </c>
-      <c r="L8" s="25">
-        <v>22563100</v>
-      </c>
-      <c r="M8" s="25">
-        <v>162219104</v>
-      </c>
-      <c r="N8" s="25">
-        <v>13500000</v>
-      </c>
-      <c r="O8" s="25">
-        <v>13500000</v>
-      </c>
-      <c r="P8" s="25">
-        <v>13500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="I15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28">
-        <v>23834000</v>
-      </c>
-      <c r="I9" s="28">
-        <v>25129600</v>
-      </c>
-      <c r="J9" s="28">
-        <v>23816700</v>
-      </c>
-      <c r="K9" s="28">
-        <v>24204500</v>
-      </c>
-      <c r="L9" s="28">
-        <v>15617200</v>
-      </c>
-      <c r="M9" s="28">
-        <v>21732800</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="25">
-        <v>1752649984</v>
-      </c>
-      <c r="K10" s="25">
-        <v>2127890048</v>
-      </c>
-      <c r="L10" s="25">
-        <v>1304700032</v>
-      </c>
-      <c r="M10" s="25">
-        <v>2055939968</v>
-      </c>
-      <c r="N10" s="25">
-        <v>741929984</v>
-      </c>
-      <c r="O10" s="25">
-        <v>741929984</v>
-      </c>
-      <c r="P10" s="25">
-        <v>741929984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="28">
-        <v>400000000</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="40" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="25">
-        <v>169980000</v>
-      </c>
-      <c r="N12" s="25">
-        <v>170760000</v>
-      </c>
-      <c r="O12" s="25">
-        <v>170760000</v>
-      </c>
-      <c r="P12" s="25">
-        <v>170760000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="J15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="28">
-        <v>43690000</v>
-      </c>
-      <c r="I13" s="28">
-        <v>47624500</v>
-      </c>
-      <c r="J13" s="28">
-        <v>22229500</v>
-      </c>
-      <c r="K13" s="28">
-        <v>7459900</v>
-      </c>
-      <c r="L13" s="28">
-        <v>12696100</v>
-      </c>
-      <c r="M13" s="28">
-        <v>8597500</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="40" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="25">
-        <v>114000000</v>
-      </c>
-      <c r="I14" s="25">
-        <v>262000000</v>
-      </c>
-      <c r="J14" s="25">
-        <v>498000000</v>
-      </c>
-      <c r="K14" s="25">
-        <v>609000000</v>
-      </c>
-      <c r="L14" s="25">
-        <v>720000000</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="K15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>64</v>
+      <c r="L15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E15:F15"/>
@@ -2225,12 +2240,6 @@
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=FFS_POL&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -2258,573 +2267,573 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="16">
+        <v>42648.475902777776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="B4" s="16">
+        <v>42688.689663425925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="32">
-        <v>42648.475902777776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="B5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="32">
-        <v>42688.689663425925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B7" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B8" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B9" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B11" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="33" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="F21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="G21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="H21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="I21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="J21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="K21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="18">
+        <v>416502</v>
+      </c>
+      <c r="C22" s="18">
+        <v>430486</v>
+      </c>
+      <c r="D22" s="18">
+        <v>402057</v>
+      </c>
+      <c r="E22" s="18">
+        <v>355429</v>
+      </c>
+      <c r="F22" s="18">
+        <v>252784</v>
+      </c>
+      <c r="G22" s="18">
+        <v>343993</v>
+      </c>
+      <c r="H22" s="18">
+        <v>338300</v>
+      </c>
+      <c r="I22" s="18">
+        <v>348607</v>
+      </c>
+      <c r="J22" s="18">
+        <v>358888</v>
+      </c>
+      <c r="K22" s="18">
+        <v>363479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="34">
-        <v>0</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0</v>
-      </c>
-      <c r="K12" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="B25" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="31" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1914879</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1851829</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1693759</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1646218</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1585850</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1478016</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1451451</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1525950</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1471491</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1361695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
+      <c r="B38" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+      <c r="B39" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B41" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="C41" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B42" s="18">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="33" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="F51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="G51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="H51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="I51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="J51" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="K51" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="18">
+        <v>533213</v>
+      </c>
+      <c r="C52" s="18">
+        <v>527274</v>
+      </c>
+      <c r="D52" s="18">
+        <v>499660</v>
+      </c>
+      <c r="E52" s="18">
+        <v>532835</v>
+      </c>
+      <c r="F52" s="18">
+        <v>509974</v>
+      </c>
+      <c r="G52" s="18">
+        <v>483952</v>
+      </c>
+      <c r="H52" s="18">
+        <v>525476</v>
+      </c>
+      <c r="I52" s="18">
+        <v>533138</v>
+      </c>
+      <c r="J52" s="18">
+        <v>549181</v>
+      </c>
+      <c r="K52" s="18">
+        <v>520598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="34">
-        <v>416502</v>
-      </c>
-      <c r="C22" s="34">
-        <v>430486</v>
-      </c>
-      <c r="D22" s="34">
-        <v>402057</v>
-      </c>
-      <c r="E22" s="34">
-        <v>355429</v>
-      </c>
-      <c r="F22" s="34">
-        <v>252784</v>
-      </c>
-      <c r="G22" s="34">
-        <v>343993</v>
-      </c>
-      <c r="H22" s="34">
-        <v>338300</v>
-      </c>
-      <c r="I22" s="34">
-        <v>348607</v>
-      </c>
-      <c r="J22" s="34">
-        <v>358888</v>
-      </c>
-      <c r="K22" s="34">
-        <v>363479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="B55" s="15" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="34">
-        <v>1914879</v>
-      </c>
-      <c r="C32" s="34">
-        <v>1851829</v>
-      </c>
-      <c r="D32" s="34">
-        <v>1693759</v>
-      </c>
-      <c r="E32" s="34">
-        <v>1646218</v>
-      </c>
-      <c r="F32" s="34">
-        <v>1585850</v>
-      </c>
-      <c r="G32" s="34">
-        <v>1478016</v>
-      </c>
-      <c r="H32" s="34">
-        <v>1451451</v>
-      </c>
-      <c r="I32" s="34">
-        <v>1525950</v>
-      </c>
-      <c r="J32" s="34">
-        <v>1471491</v>
-      </c>
-      <c r="K32" s="34">
-        <v>1361695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="34">
-        <v>0</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
-        <v>0</v>
-      </c>
-      <c r="I42" s="34">
-        <v>0</v>
-      </c>
-      <c r="J42" s="34">
-        <v>0</v>
-      </c>
-      <c r="K42" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="34">
-        <v>533213</v>
-      </c>
-      <c r="C52" s="34">
-        <v>527274</v>
-      </c>
-      <c r="D52" s="34">
-        <v>499660</v>
-      </c>
-      <c r="E52" s="34">
-        <v>532835</v>
-      </c>
-      <c r="F52" s="34">
-        <v>509974</v>
-      </c>
-      <c r="G52" s="34">
-        <v>483952</v>
-      </c>
-      <c r="H52" s="34">
-        <v>525476</v>
-      </c>
-      <c r="I52" s="34">
-        <v>533138</v>
-      </c>
-      <c r="J52" s="34">
-        <v>549181</v>
-      </c>
-      <c r="K52" s="34">
-        <v>520598</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2840,139 +2849,139 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.90625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="4"/>
-      <c r="G1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="50">
+      <c r="G1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="34">
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="52">
+      <c r="H2" s="36">
         <v>0.97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <f>'Gas Coal and Petro'!P10</f>
         <v>741929984</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="23">
         <f>SUM('Coal Production'!K12,'Coal Production'!K22,'Coal Production'!K32,'Coal Production'!K42,'Coal Production'!K52)</f>
         <v>2245772</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="24">
         <f>A3/H1*H2/(B3*H3)</f>
         <v>9.6242367000181586E-8</v>
       </c>
-      <c r="G3" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="54">
+      <c r="G3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="38">
         <v>947817120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="35"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="46" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="C6" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <f>'Gas Coal and Petro'!P8</f>
         <v>13500000</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="23">
         <v>2061496</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="24">
         <f>A7/H1*H2/(B7*H3)</f>
         <v>1.9077449280425012E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="46" t="s">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="48">
+      <c r="C12" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <f>SUM('Gas Coal and Petro'!P12)</f>
         <v>170760000</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="20">
         <v>561256</v>
       </c>
       <c r="C13">
@@ -2991,18 +3000,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AM3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:AM17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="6">
-        <f t="shared" ref="U2:AM16" si="0">TREND($K2:$S2,$K$1:$S$1,U$1)</f>
+        <f t="shared" ref="U2:AM7" si="0">TREND($K2:$S2,$K$1:$S$1,U$1)</f>
         <v>0</v>
       </c>
       <c r="V2" s="6">
@@ -3260,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3426,7 @@
         <v>9.8150111928224094E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>8.8632741958591339E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" ref="T3:AI16" si="1">TREND($K5:$S5,$K$1:$S$1,T$1)</f>
+        <f t="shared" ref="T5:T7" si="1">TREND($K5:$S5,$K$1:$S$1,T$1)</f>
         <v>0</v>
       </c>
       <c r="U5" s="6">
@@ -3713,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3991,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4824,9 +4833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -4943,9 +4952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -5060,6 +5069,163 @@
       </c>
       <c r="AM16" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B3</f>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:AM17" si="2">C3</f>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AC17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AD17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AE17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AF17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AH17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AK17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AL17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
+      </c>
+      <c r="AM17" s="5">
+        <f t="shared" si="2"/>
+        <v>9.8150111928224094E-8</v>
       </c>
     </row>
   </sheetData>
@@ -5074,16 +5240,16 @@
   </sheetPr>
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5202,1360 +5368,1554 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="44">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44">
-        <v>0</v>
-      </c>
-      <c r="D2" s="44">
-        <v>0</v>
-      </c>
-      <c r="E2" s="44">
-        <v>0</v>
-      </c>
-      <c r="F2" s="44">
-        <v>0</v>
-      </c>
-      <c r="G2" s="44">
-        <v>0</v>
-      </c>
-      <c r="H2" s="44">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44">
-        <v>0</v>
-      </c>
-      <c r="J2" s="44">
-        <v>0</v>
-      </c>
-      <c r="K2" s="44">
-        <v>0</v>
-      </c>
-      <c r="L2" s="44">
-        <v>0</v>
-      </c>
-      <c r="M2" s="44">
-        <v>0</v>
-      </c>
-      <c r="N2" s="44">
-        <v>0</v>
-      </c>
-      <c r="O2" s="44">
-        <v>0</v>
-      </c>
-      <c r="P2" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="44">
-        <v>0</v>
-      </c>
-      <c r="R2" s="44">
-        <v>0</v>
-      </c>
-      <c r="S2" s="44">
-        <v>0</v>
-      </c>
-      <c r="T2" s="44">
-        <v>0</v>
-      </c>
-      <c r="U2" s="44">
-        <v>0</v>
-      </c>
-      <c r="V2" s="44">
-        <v>0</v>
-      </c>
-      <c r="W2" s="44">
-        <v>0</v>
-      </c>
-      <c r="X2" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28">
+        <v>0</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0</v>
+      </c>
+      <c r="P2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <v>0</v>
+      </c>
+      <c r="S2" s="28">
+        <v>0</v>
+      </c>
+      <c r="T2" s="28">
+        <v>0</v>
+      </c>
+      <c r="U2" s="28">
+        <v>0</v>
+      </c>
+      <c r="V2" s="28">
+        <v>0</v>
+      </c>
+      <c r="W2" s="28">
+        <v>0</v>
+      </c>
+      <c r="X2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="44">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>0</v>
-      </c>
-      <c r="D3" s="44">
-        <v>0</v>
-      </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44">
-        <v>0</v>
-      </c>
-      <c r="J3" s="44">
-        <v>0</v>
-      </c>
-      <c r="K3" s="44">
-        <v>0</v>
-      </c>
-      <c r="L3" s="44">
-        <v>0</v>
-      </c>
-      <c r="M3" s="44">
-        <v>0</v>
-      </c>
-      <c r="N3" s="44">
-        <v>0</v>
-      </c>
-      <c r="O3" s="44">
-        <v>0</v>
-      </c>
-      <c r="P3" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="44">
-        <v>0</v>
-      </c>
-      <c r="R3" s="44">
-        <v>0</v>
-      </c>
-      <c r="S3" s="44">
-        <v>0</v>
-      </c>
-      <c r="T3" s="44">
-        <v>0</v>
-      </c>
-      <c r="U3" s="44">
-        <v>0</v>
-      </c>
-      <c r="V3" s="44">
-        <v>0</v>
-      </c>
-      <c r="W3" s="44">
-        <v>0</v>
-      </c>
-      <c r="X3" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="44">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44">
-        <v>0</v>
-      </c>
-      <c r="D4" s="44">
-        <v>0</v>
-      </c>
-      <c r="E4" s="44">
-        <v>0</v>
-      </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44">
-        <v>0</v>
-      </c>
-      <c r="K4" s="44">
-        <v>0</v>
-      </c>
-      <c r="L4" s="44">
-        <v>0</v>
-      </c>
-      <c r="M4" s="44">
-        <v>0</v>
-      </c>
-      <c r="N4" s="44">
-        <v>0</v>
-      </c>
-      <c r="O4" s="44">
-        <v>0</v>
-      </c>
-      <c r="P4" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="44">
-        <v>0</v>
-      </c>
-      <c r="R4" s="44">
-        <v>0</v>
-      </c>
-      <c r="S4" s="44">
-        <v>0</v>
-      </c>
-      <c r="T4" s="44">
-        <v>0</v>
-      </c>
-      <c r="U4" s="44">
-        <v>0</v>
-      </c>
-      <c r="V4" s="44">
-        <v>0</v>
-      </c>
-      <c r="W4" s="44">
-        <v>0</v>
-      </c>
-      <c r="X4" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0</v>
+      </c>
+      <c r="S4" s="28">
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
+      <c r="X4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44">
-        <v>0</v>
-      </c>
-      <c r="C5" s="44">
-        <v>0</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="44">
-        <v>0</v>
-      </c>
-      <c r="K5" s="44">
-        <v>0</v>
-      </c>
-      <c r="L5" s="44">
-        <v>0</v>
-      </c>
-      <c r="M5" s="44">
-        <v>0</v>
-      </c>
-      <c r="N5" s="44">
-        <v>0</v>
-      </c>
-      <c r="O5" s="44">
-        <v>0</v>
-      </c>
-      <c r="P5" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="44">
-        <v>0</v>
-      </c>
-      <c r="R5" s="44">
-        <v>0</v>
-      </c>
-      <c r="S5" s="44">
-        <v>0</v>
-      </c>
-      <c r="T5" s="44">
-        <v>0</v>
-      </c>
-      <c r="U5" s="44">
-        <v>0</v>
-      </c>
-      <c r="V5" s="44">
-        <v>0</v>
-      </c>
-      <c r="W5" s="44">
-        <v>0</v>
-      </c>
-      <c r="X5" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
+        <v>0</v>
+      </c>
+      <c r="S5" s="28">
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0</v>
+      </c>
+      <c r="W5" s="28">
+        <v>0</v>
+      </c>
+      <c r="X5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="44">
-        <v>0</v>
-      </c>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44">
-        <v>0</v>
-      </c>
-      <c r="L6" s="44">
-        <v>0</v>
-      </c>
-      <c r="M6" s="44">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44">
-        <v>0</v>
-      </c>
-      <c r="O6" s="44">
-        <v>0</v>
-      </c>
-      <c r="P6" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="44">
-        <v>0</v>
-      </c>
-      <c r="R6" s="44">
-        <v>0</v>
-      </c>
-      <c r="S6" s="44">
-        <v>0</v>
-      </c>
-      <c r="T6" s="44">
-        <v>0</v>
-      </c>
-      <c r="U6" s="44">
-        <v>0</v>
-      </c>
-      <c r="V6" s="44">
-        <v>0</v>
-      </c>
-      <c r="W6" s="44">
-        <v>0</v>
-      </c>
-      <c r="X6" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <v>0</v>
+      </c>
+      <c r="S6" s="28">
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <v>0</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
+      <c r="X6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="44">
-        <v>0</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
-        <v>0</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44">
-        <v>0</v>
-      </c>
-      <c r="K7" s="44">
-        <v>0</v>
-      </c>
-      <c r="L7" s="44">
-        <v>0</v>
-      </c>
-      <c r="M7" s="44">
-        <v>0</v>
-      </c>
-      <c r="N7" s="44">
-        <v>0</v>
-      </c>
-      <c r="O7" s="44">
-        <v>0</v>
-      </c>
-      <c r="P7" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>0</v>
-      </c>
-      <c r="R7" s="44">
-        <v>0</v>
-      </c>
-      <c r="S7" s="44">
-        <v>0</v>
-      </c>
-      <c r="T7" s="44">
-        <v>0</v>
-      </c>
-      <c r="U7" s="44">
-        <v>0</v>
-      </c>
-      <c r="V7" s="44">
-        <v>0</v>
-      </c>
-      <c r="W7" s="44">
-        <v>0</v>
-      </c>
-      <c r="X7" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="44">
-        <v>0</v>
-      </c>
-      <c r="C8" s="44">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="44">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="J8" s="44">
-        <v>0</v>
-      </c>
-      <c r="K8" s="44">
-        <v>0</v>
-      </c>
-      <c r="L8" s="44">
-        <v>0</v>
-      </c>
-      <c r="M8" s="44">
-        <v>0</v>
-      </c>
-      <c r="N8" s="44">
-        <v>0</v>
-      </c>
-      <c r="O8" s="44">
-        <v>0</v>
-      </c>
-      <c r="P8" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>0</v>
-      </c>
-      <c r="R8" s="44">
-        <v>0</v>
-      </c>
-      <c r="S8" s="44">
-        <v>0</v>
-      </c>
-      <c r="T8" s="44">
-        <v>0</v>
-      </c>
-      <c r="U8" s="44">
-        <v>0</v>
-      </c>
-      <c r="V8" s="44">
-        <v>0</v>
-      </c>
-      <c r="W8" s="44">
-        <v>0</v>
-      </c>
-      <c r="X8" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28">
+        <v>0</v>
+      </c>
+      <c r="X8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="44">
-        <v>0</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
-        <v>0</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="44">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0</v>
-      </c>
-      <c r="L9" s="44">
-        <v>0</v>
-      </c>
-      <c r="M9" s="44">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44">
-        <v>0</v>
-      </c>
-      <c r="O9" s="44">
-        <v>0</v>
-      </c>
-      <c r="P9" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="44">
-        <v>0</v>
-      </c>
-      <c r="R9" s="44">
-        <v>0</v>
-      </c>
-      <c r="S9" s="44">
-        <v>0</v>
-      </c>
-      <c r="T9" s="44">
-        <v>0</v>
-      </c>
-      <c r="U9" s="44">
-        <v>0</v>
-      </c>
-      <c r="V9" s="44">
-        <v>0</v>
-      </c>
-      <c r="W9" s="44">
-        <v>0</v>
-      </c>
-      <c r="X9" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0</v>
+      </c>
+      <c r="S11" s="28">
+        <v>0</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28">
+        <v>0</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
+      <c r="X11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="44">
-        <v>0</v>
-      </c>
-      <c r="C10" s="44">
-        <v>0</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0</v>
-      </c>
-      <c r="E10" s="44">
-        <v>0</v>
-      </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44">
-        <v>0</v>
-      </c>
-      <c r="J10" s="44">
-        <v>0</v>
-      </c>
-      <c r="K10" s="44">
-        <v>0</v>
-      </c>
-      <c r="L10" s="44">
-        <v>0</v>
-      </c>
-      <c r="M10" s="44">
-        <v>0</v>
-      </c>
-      <c r="N10" s="44">
-        <v>0</v>
-      </c>
-      <c r="O10" s="44">
-        <v>0</v>
-      </c>
-      <c r="P10" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>0</v>
-      </c>
-      <c r="R10" s="44">
-        <v>0</v>
-      </c>
-      <c r="S10" s="44">
-        <v>0</v>
-      </c>
-      <c r="T10" s="44">
-        <v>0</v>
-      </c>
-      <c r="U10" s="44">
-        <v>0</v>
-      </c>
-      <c r="V10" s="44">
-        <v>0</v>
-      </c>
-      <c r="W10" s="44">
-        <v>0</v>
-      </c>
-      <c r="X10" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="44">
-        <v>0</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0</v>
-      </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
-        <v>0</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="44">
-        <v>0</v>
-      </c>
-      <c r="I11" s="44">
-        <v>0</v>
-      </c>
-      <c r="J11" s="44">
-        <v>0</v>
-      </c>
-      <c r="K11" s="44">
-        <v>0</v>
-      </c>
-      <c r="L11" s="44">
-        <v>0</v>
-      </c>
-      <c r="M11" s="44">
-        <v>0</v>
-      </c>
-      <c r="N11" s="44">
-        <v>0</v>
-      </c>
-      <c r="O11" s="44">
-        <v>0</v>
-      </c>
-      <c r="P11" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="44">
-        <v>0</v>
-      </c>
-      <c r="R11" s="44">
-        <v>0</v>
-      </c>
-      <c r="S11" s="44">
-        <v>0</v>
-      </c>
-      <c r="T11" s="44">
-        <v>0</v>
-      </c>
-      <c r="U11" s="44">
-        <v>0</v>
-      </c>
-      <c r="V11" s="44">
-        <v>0</v>
-      </c>
-      <c r="W11" s="44">
-        <v>0</v>
-      </c>
-      <c r="X11" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="44">
-        <v>0</v>
-      </c>
-      <c r="C12" s="44">
-        <v>0</v>
-      </c>
-      <c r="D12" s="44">
-        <v>0</v>
-      </c>
-      <c r="E12" s="44">
-        <v>0</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="44">
-        <v>0</v>
-      </c>
-      <c r="K12" s="44">
-        <v>0</v>
-      </c>
-      <c r="L12" s="44">
-        <v>0</v>
-      </c>
-      <c r="M12" s="44">
-        <v>0</v>
-      </c>
-      <c r="N12" s="44">
-        <v>0</v>
-      </c>
-      <c r="O12" s="44">
-        <v>0</v>
-      </c>
-      <c r="P12" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>0</v>
-      </c>
-      <c r="R12" s="44">
-        <v>0</v>
-      </c>
-      <c r="S12" s="44">
-        <v>0</v>
-      </c>
-      <c r="T12" s="44">
-        <v>0</v>
-      </c>
-      <c r="U12" s="44">
-        <v>0</v>
-      </c>
-      <c r="V12" s="44">
-        <v>0</v>
-      </c>
-      <c r="W12" s="44">
-        <v>0</v>
-      </c>
-      <c r="X12" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28">
+        <v>0</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
+        <v>0</v>
+      </c>
+      <c r="S12" s="28">
+        <v>0</v>
+      </c>
+      <c r="T12" s="28">
+        <v>0</v>
+      </c>
+      <c r="U12" s="28">
+        <v>0</v>
+      </c>
+      <c r="V12" s="28">
+        <v>0</v>
+      </c>
+      <c r="W12" s="28">
+        <v>0</v>
+      </c>
+      <c r="X12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <v>0</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0</v>
+      </c>
+      <c r="U13" s="28">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>0</v>
+      </c>
+      <c r="W13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>0</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0</v>
+      </c>
+      <c r="X14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -6577,7 +6937,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
